--- a/po_analysis_by_asin/B0BJP5Z79F_po_data.xlsx
+++ b/po_analysis_by_asin/B0BJP5Z79F_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -637,7 +638,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -687,6 +688,439 @@
       </c>
       <c r="B7" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.2591803429840951</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.538467453613412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1776220099695499</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.906405469197727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.7917602603296198</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.421411503201538</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.8747254470783714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.272039441644475</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.794427648418226</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.594807935505775</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.7346544759304557</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.880174521441363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.012754690526311</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.864844323321598</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.384633520081198</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.22284152779681</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.347043570018074</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.819854532606583</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.160530707910143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.055276097215479</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.339459287406098</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.675296438633049</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.350112910714259</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.66700234092318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.649760487220139</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.151312696809547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.589445206700117</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.312858963965952</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.864231622278816</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.133931826474719</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.882377226143845</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.953962892227002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.092932240988755</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.19948393297773</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.030059328613417</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.213096630477263</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.527939724424794</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.86089547201718</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.341701239410636</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.996135709774709</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.417153194384885</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.949460370735401</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.53654589771281</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.297020087707792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.54506785920033</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.286596146613912</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.48173283100756</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.452605574515645</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.53232773543358</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.621038110917127</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.891184783419642</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.320840137056916</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.002713376351964</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.316039010541536</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.95447298193994</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.437158856447184</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BJP5Z79F_po_data.xlsx
+++ b/po_analysis_by_asin/B0BJP5Z79F_po_data.xlsx
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,16 +720,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -738,12 +728,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.2591803429840951</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.538467453613412</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -752,12 +736,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.1776220099695499</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.906405469197727</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -766,12 +744,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>-0.7917602603296198</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.421411503201538</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -780,12 +752,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.8747254470783714</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.272039441644475</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -794,12 +760,6 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>-0.794427648418226</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.594807935505775</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -808,12 +768,6 @@
       <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.7346544759304557</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.880174521441363</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -822,12 +776,6 @@
       <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1.012754690526311</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.864844323321598</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -836,12 +784,6 @@
       <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.384633520081198</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.22284152779681</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -850,12 +792,6 @@
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
-        <v>-1.347043570018074</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.819854532606583</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -864,12 +800,6 @@
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
-        <v>-1.160530707910143</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.055276097215479</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -878,12 +808,6 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.339459287406098</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7.675296438633049</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -892,12 +816,6 @@
       <c r="B13" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.350112910714259</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.66700234092318</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -906,12 +824,6 @@
       <c r="B14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.649760487220139</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7.151312696809547</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -920,12 +832,6 @@
       <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.589445206700117</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7.312858963965952</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -934,12 +840,6 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.864231622278816</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7.133931826474719</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -948,12 +848,6 @@
       <c r="B17" t="n">
         <v>3</v>
       </c>
-      <c r="C17" t="n">
-        <v>-1.882377226143845</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.953962892227002</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -962,12 +856,6 @@
       <c r="B18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>-2.092932240988755</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7.19948393297773</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -976,12 +864,6 @@
       <c r="B19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" t="n">
-        <v>-2.030059328613417</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7.213096630477263</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -990,12 +872,6 @@
       <c r="B20" t="n">
         <v>2</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.527939724424794</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.86089547201718</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1004,12 +880,6 @@
       <c r="B21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="n">
-        <v>-2.341701239410636</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.996135709774709</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1018,12 +888,6 @@
       <c r="B22" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="n">
-        <v>-2.417153194384885</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.949460370735401</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1032,12 +896,6 @@
       <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="C23" t="n">
-        <v>-2.53654589771281</v>
-      </c>
-      <c r="D23" t="n">
-        <v>6.297020087707792</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1046,12 +904,6 @@
       <c r="B24" t="n">
         <v>2</v>
       </c>
-      <c r="C24" t="n">
-        <v>-2.54506785920033</v>
-      </c>
-      <c r="D24" t="n">
-        <v>6.286596146613912</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1060,12 +912,6 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" t="n">
-        <v>-2.48173283100756</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6.452605574515645</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1074,12 +920,6 @@
       <c r="B26" t="n">
         <v>2</v>
       </c>
-      <c r="C26" t="n">
-        <v>-2.53232773543358</v>
-      </c>
-      <c r="D26" t="n">
-        <v>6.621038110917127</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1088,12 +928,6 @@
       <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="C27" t="n">
-        <v>-2.891184783419642</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6.320840137056916</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1102,12 +936,6 @@
       <c r="B28" t="n">
         <v>2</v>
       </c>
-      <c r="C28" t="n">
-        <v>-3.002713376351964</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6.316039010541536</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1115,12 +943,6 @@
       </c>
       <c r="B29" t="n">
         <v>2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-2.95447298193994</v>
-      </c>
-      <c r="D29" t="n">
-        <v>6.437158856447184</v>
       </c>
     </row>
   </sheetData>
